--- a/pedroproject/myapp/talented.xlsx
+++ b/pedroproject/myapp/talented.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zonwi\Documents\GitHub\Website_Pedro_coin_backend\pedroproject\myapp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9F63D56-DEB4-44FC-B452-2BEF46E985CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76A2D36D-1FE4-4C39-9B67-CC61F8B3A69C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="32448" yWindow="2652" windowWidth="23040" windowHeight="12072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
   <si>
     <t>Tijdstempel</t>
   </si>
@@ -131,6 +131,15 @@
   </si>
   <si>
     <t>Communication</t>
+  </si>
+  <si>
+    <t>Rank</t>
+  </si>
+  <si>
+    <t>Knight</t>
+  </si>
+  <si>
+    <t>Warrior</t>
   </si>
 </sst>
 </file>
@@ -450,8 +459,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses1" displayName="Form_Responses1" ref="A1:O3">
-  <tableColumns count="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses1" displayName="Form_Responses1" ref="A1:P3">
+  <tableColumns count="16">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Tijdstempel"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="What is your name?"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="What will be your profile picture? (link)"/>
@@ -467,6 +476,7 @@
     <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="What is your Email?"/>
     <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Share your CV! (link)"/>
     <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Add here your transaction link!"/>
+    <tableColumn id="16" xr3:uid="{A0DC40D4-14C2-49D3-B822-0DD747D69C65}" name="Rank"/>
   </tableColumns>
   <tableStyleInfo name="Formulierreacties 1-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -673,11 +683,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:O3"/>
+      <selection pane="bottomLeft" activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -700,7 +710,7 @@
     <col min="16" max="21" width="18.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -746,8 +756,11 @@
       <c r="O1" s="3" t="s">
         <v>14</v>
       </c>
+      <c r="P1" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>45711.51966435185</v>
       </c>
@@ -789,8 +802,11 @@
       <c r="O2" s="9" t="s">
         <v>22</v>
       </c>
+      <c r="P2" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10">
         <v>45711.854409722226</v>
       </c>
@@ -833,6 +849,9 @@
       <c r="N3" s="14"/>
       <c r="O3" s="15" t="s">
         <v>32</v>
+      </c>
+      <c r="P3" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/pedroproject/myapp/talented.xlsx
+++ b/pedroproject/myapp/talented.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zonwi\Documents\GitHub\Website_Pedro_coin_backend\pedroproject\myapp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76A2D36D-1FE4-4C39-9B67-CC61F8B3A69C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D843F023-9544-4D61-8628-6F58A2DDB160}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32448" yWindow="2652" windowWidth="23040" windowHeight="12072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12710" yWindow="0" windowWidth="12980" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Formulierreacties 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="50">
   <si>
     <t>Tijdstempel</t>
   </si>
@@ -67,9 +67,6 @@
     <t>Add here your transaction link!</t>
   </si>
   <si>
-    <t>Pedro The Raccoon</t>
-  </si>
-  <si>
     <t>https://media-hosting.imagekit.io//662fdfaaa8224fb7/12-2-2025 (3).png?Expires=1834917966&amp;Key-Pair-Id=K2ZIVPTIP2VGHC&amp;Signature=ikZ-8jkoIp68WHtuczR3Q4oc9gmkOtUFQi0dQKW3q-GG1HwXcaTkVFYYaoviE4IMt1D-rFU-uXZqxre4birxuObcHW5fcKzQFzHoumpVV5Aa0OXwaR-fkKRaeAQG5afagLgvFQnSCsPrskV1J5xufykeqshR0dxsZwTkLnIXHqesQ66beaO0B8ETalsAcCxZZYWCYGnUIu0l0JvX44gRpM~YxKEdC8m-rKWE50fE-kOsVignMfSqGzwtOR0vXllCagmbzioShrmJFQZF1qGZ1lIDvVeEN58gqUmx~gs9v8u6NyjaaFOoqK6dno2QVJQ6Rgy-SYpxHDtYFa7qRTBtuQ__</t>
   </si>
   <si>
@@ -79,9 +76,6 @@
     <t>Dutch</t>
   </si>
   <si>
-    <t>Belgium</t>
-  </si>
-  <si>
     <t>Bachelor's Degree</t>
   </si>
   <si>
@@ -100,12 +94,6 @@
     <t>English</t>
   </si>
   <si>
-    <t>Nigeria</t>
-  </si>
-  <si>
-    <t>I'm a young and Aspiring individual, solely focus on making</t>
-  </si>
-  <si>
     <t>@Waky001.badboo.inj</t>
   </si>
   <si>
@@ -118,15 +106,6 @@
     <t>fridayuwakmfon93@gmail.com</t>
   </si>
   <si>
-    <t>inj1qqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqe2hm49</t>
-  </si>
-  <si>
-    <t>Laughing, Fun</t>
-  </si>
-  <si>
-    <t>Kind and chill guy testing some things around</t>
-  </si>
-  <si>
     <t>https://media-hosting.imagekit.io//82eaa26840424011/mediaThumbnail.jpg?Expires=1834949168&amp;Key-Pair-Id=K2ZIVPTIP2VGHC&amp;Signature=VBILeooaXE1EFhOW8EaJPeVNoj~YzJhrrN8qt8LEkKtgfWc23k31Jo1FxP4cHBk1lmcbvVdDb3Br9ASq0izXQdMTKAsOgeBEFt2vJzOe6dyXrZ5DBZksfE7LdT9tiiTeQcf-ZRK8~gcdM04GnJUCuS9bGys~sjW7Ia1QjOL8O0do3G2tr~kJC2srNmMs2OM26a02JqO-iqSPDTf5yWLVwG39WUnKPbZdvZG~cQosJ7Ehz-LNC1zu2FXa7YSwhEGYWT85rv9kbNnZgnBUyjcR~rhi4mnwQgUMs2EChJOVnIGluOJtDPiPawUIDpAcxMHhG9ng1~Bw5magLhTiYLZTiA__</t>
   </si>
   <si>
@@ -140,13 +119,64 @@
   </si>
   <si>
     <t>Warrior</t>
+  </si>
+  <si>
+    <t>Pedro Test</t>
+  </si>
+  <si>
+    <t>Laughing, Fun, Yolo, Test</t>
+  </si>
+  <si>
+    <t>Europe</t>
+  </si>
+  <si>
+    <t>Africa</t>
+  </si>
+  <si>
+    <t>Kind and chill guy testing some things around for the community.</t>
+  </si>
+  <si>
+    <t>I'm a young and Aspiring individual, solely focus on making!</t>
+  </si>
+  <si>
+    <t>Adura Crypto</t>
+  </si>
+  <si>
+    <t>Designer, Communication, Web3 Culture</t>
+  </si>
+  <si>
+    <t>High School</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Graphic Designer</t>
+  </si>
+  <si>
+    <t>Create content and been a good community engager</t>
+  </si>
+  <si>
+    <t>adura_crypto</t>
+  </si>
+  <si>
+    <t>https://x.com/Adura_Crypto?t=UNVxQ2jx-74VRqqfwXpK6g&amp;s=09</t>
+  </si>
+  <si>
+    <t>https://t.me/adura_crypto</t>
+  </si>
+  <si>
+    <t>inaadura@gmail.com</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/151j_vNT2mDX4a3RMsGNxSZghWXvrvHWB/view?usp=drivesdk</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -178,6 +208,41 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF434343"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="9"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -199,7 +264,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -357,12 +422,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -379,27 +453,18 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="22" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -409,12 +474,43 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <right style="medium">
+          <color rgb="FFCCCCCC"/>
+        </right>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -442,9 +538,9 @@
   </dxfs>
   <tableStyles count="1">
     <tableStyle name="Formulierreacties 1-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="headerRow" dxfId="2"/>
-      <tableStyleElement type="firstRowStripe" dxfId="1"/>
-      <tableStyleElement type="secondRowStripe" dxfId="0"/>
+      <tableStyleElement type="headerRow" dxfId="4"/>
+      <tableStyleElement type="firstRowStripe" dxfId="3"/>
+      <tableStyleElement type="secondRowStripe" dxfId="2"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -459,11 +555,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses1" displayName="Form_Responses1" ref="A1:P3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses1" displayName="Form_Responses1" ref="A1:P4">
   <tableColumns count="16">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Tijdstempel"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="What is your name?"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="What will be your profile picture? (link)"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="What is your name?" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="What will be your profile picture? (link)" dataDxfId="0"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="What is your role?"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="What are your skills?"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Which languages can you speak?  "/>
@@ -683,11 +779,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P4" sqref="P4"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -757,7 +853,7 @@
         <v>14</v>
       </c>
       <c r="P1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -765,107 +861,158 @@
         <v>45711.51966435185</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="I2" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="K2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="O2" s="9" t="s">
-        <v>22</v>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="O2" s="19" t="s">
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="10">
+      <c r="A3" s="8">
         <v>45711.854409722226</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" s="11" t="s">
+      <c r="G3" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="K3" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="N3" s="11"/>
+      <c r="O3" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="P3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="15">
+        <v>45713.416666666664</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="16"/>
+      <c r="D4" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="J3" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="K3" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="L3" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="M3" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="N3" s="14"/>
-      <c r="O3" s="15" t="s">
+      <c r="H4" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="I4" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J4" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="K4" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="M4" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="N4" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="O4" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="P4" s="18" t="s">
         <v>32</v>
-      </c>
-      <c r="P3" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="K2" r:id="rId1" xr:uid="{1E29A86F-8429-4225-A024-11672BE7FFC2}"/>
     <hyperlink ref="N2" r:id="rId2" xr:uid="{767142E5-EA0D-4908-8208-94C6122D4A4A}"/>
-    <hyperlink ref="O2" r:id="rId3" xr:uid="{E5ECC9DD-2A19-4AF7-9657-553D9B2708B1}"/>
+    <hyperlink ref="O2" r:id="rId3" display="https://x.com/InjPedro" xr:uid="{E5ECC9DD-2A19-4AF7-9657-553D9B2708B1}"/>
     <hyperlink ref="C3" r:id="rId4" display="https://media-hosting.imagekit.io/82eaa26840424011/mediaThumbnail.jpg?Expires=1834949168&amp;Key-Pair-Id=K2ZIVPTIP2VGHC&amp;Signature=VBILeooaXE1EFhOW8EaJPeVNoj~YzJhrrN8qt8LEkKtgfWc23k31Jo1FxP4cHBk1lmcbvVdDb3Br9ASq0izXQdMTKAsOgeBEFt2vJzOe6dyXrZ5DBZksfE7LdT9tiiTeQcf-ZRK8~gcdM04GnJUCuS9bGys~sjW7Ia1QjOL8O0do3G2tr~kJC2srNmMs2OM26a02JqO-iqSPDTf5yWLVwG39WUnKPbZdvZG~cQosJ7Ehz-LNC1zu2FXa7YSwhEGYWT85rv9kbNnZgnBUyjcR~rhi4mnwQgUMs2EChJOVnIGluOJtDPiPawUIDpAcxMHhG9ng1~Bw5magLhTiYLZTiA__" xr:uid="{15B96512-8AE3-4CC4-93A5-E5BB24EB6FD3}"/>
     <hyperlink ref="K3" r:id="rId5" xr:uid="{4B73D904-746B-48C4-ADC0-407A3991A6B0}"/>
     <hyperlink ref="L3" r:id="rId6" xr:uid="{4068DAAA-C6F3-4207-ADF0-92847ED16754}"/>
+    <hyperlink ref="K4" r:id="rId7" tooltip="https://x.com/Adura_Crypto?t=UNVxQ2jx-74VRqqfwXpK6g&amp;s=09" xr:uid="{EE5ECB09-F4E1-4CD9-8D38-ED59E48BABC0}"/>
+    <hyperlink ref="L4" r:id="rId8" xr:uid="{7213A127-B4A4-4811-8E1D-94ADA127E983}"/>
+    <hyperlink ref="N4" r:id="rId9" tooltip="https://drive.google.com/file/d/151j_vNT2mDX4a3RMsGNxSZghWXvrvHWB/view?usp=drivesdk" xr:uid="{80A5573E-FC3E-4524-B962-518BF79CEF70}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId7"/>
+    <tablePart r:id="rId10"/>
   </tableParts>
 </worksheet>
 </file>
--- a/pedroproject/myapp/talented.xlsx
+++ b/pedroproject/myapp/talented.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zonwi\Documents\GitHub\Website_Pedro_coin_backend\pedroproject\myapp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D843F023-9544-4D61-8628-6F58A2DDB160}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23116B35-4CA9-490C-8505-40F94644186B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12710" yWindow="0" windowWidth="12980" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Formulierreacties 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="51">
   <si>
     <t>Tijdstempel</t>
   </si>
@@ -133,18 +133,12 @@
     <t>Africa</t>
   </si>
   <si>
-    <t>Kind and chill guy testing some things around for the community.</t>
-  </si>
-  <si>
     <t>I'm a young and Aspiring individual, solely focus on making!</t>
   </si>
   <si>
     <t>Adura Crypto</t>
   </si>
   <si>
-    <t>Designer, Communication, Web3 Culture</t>
-  </si>
-  <si>
     <t>High School</t>
   </si>
   <si>
@@ -154,9 +148,6 @@
     <t>Graphic Designer</t>
   </si>
   <si>
-    <t>Create content and been a good community engager</t>
-  </si>
-  <si>
     <t>adura_crypto</t>
   </si>
   <si>
@@ -170,6 +161,18 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/151j_vNT2mDX4a3RMsGNxSZghWXvrvHWB/view?usp=drivesdk</t>
+  </si>
+  <si>
+    <t>Designer, Communication</t>
+  </si>
+  <si>
+    <t>Create content and been a good community engager will grow the project!</t>
+  </si>
+  <si>
+    <t>Kind and chill guy testing some things around for the community. Nothing else!</t>
+  </si>
+  <si>
+    <t>https://media-hosting.imagekit.io//cbc8b7f36bff41b2/adura.jpg?Expires=1835048030&amp;Key-Pair-Id=K2ZIVPTIP2VGHC&amp;Signature=J79DvMTJP3W6F-rlQuzHBL19H9VHhq4CJsnfc55n67PkT-yhCfJH4kh6ir0de159gz1GSuJDM963k7Ox9Ufyl57XYOjVt9aGZwKrrwW6S50Sa5eYDyFP9UBr2dxJu2JMdGoQvQwBbT7Juq5da22F4Z0u4cwIjQuFSCi~rTNmPIlwrsTocpYtwiDepjTYOWzr7d5rbFMXmI9tjys5MD9uW6iwrYB0B1Ss2qyovf7nHlcGOWOIY2Azj94XQob9-xkV9d~gi5bo6OJa4eD3gT-rWFXvwX7qhhJsjEPp5mPpOL8jP8JCwK-Rx~jJJ8D~FG5eB86bNTNbeQHXEDYTjZmPgw__</t>
   </si>
 </sst>
 </file>
@@ -230,15 +233,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
+      <sz val="14"/>
+      <color rgb="FF1A202C"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -481,13 +484,13 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -783,7 +786,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -882,7 +885,7 @@
         <v>18</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>19</v>
@@ -895,8 +898,8 @@
       <c r="N2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="O2" s="19" t="s">
-        <v>42</v>
+      <c r="O2" s="18" t="s">
+        <v>40</v>
       </c>
       <c r="P2" t="s">
         <v>31</v>
@@ -928,7 +931,7 @@
         <v>18</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J3" s="9" t="s">
         <v>24</v>
@@ -944,57 +947,59 @@
       </c>
       <c r="N3" s="11"/>
       <c r="O3" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="P3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="15">
         <v>45713.416666666664</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="18" t="s">
+      <c r="I4" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="J4" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="K4" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="L4" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="M4" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="N4" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="O4" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="H4" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="I4" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="J4" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="K4" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="L4" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="M4" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="N4" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="O4" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="P4" s="18" t="s">
+      <c r="P4" s="17" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1011,8 +1016,9 @@
     <hyperlink ref="N4" r:id="rId9" tooltip="https://drive.google.com/file/d/151j_vNT2mDX4a3RMsGNxSZghWXvrvHWB/view?usp=drivesdk" xr:uid="{80A5573E-FC3E-4524-B962-518BF79CEF70}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
   <tableParts count="1">
-    <tablePart r:id="rId10"/>
+    <tablePart r:id="rId11"/>
   </tableParts>
 </worksheet>
 </file>
--- a/pedroproject/myapp/talented.xlsx
+++ b/pedroproject/myapp/talented.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zonwi\Documents\GitHub\Website_Pedro_coin_backend\pedroproject\myapp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23116B35-4CA9-490C-8505-40F94644186B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A23BA5F-29F5-45EF-BECF-1C33C896AB1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="50">
   <si>
     <t>Tijdstempel</t>
   </si>
@@ -73,9 +73,6 @@
     <t>Community Manager</t>
   </si>
   <si>
-    <t>Dutch</t>
-  </si>
-  <si>
     <t>Bachelor's Degree</t>
   </si>
   <si>
@@ -94,12 +91,6 @@
     <t>English</t>
   </si>
   <si>
-    <t>@Waky001.badboo.inj</t>
-  </si>
-  <si>
-    <t>https://x.com/Uwakmfon104?t=Y6LfLhoHaUTVlcrmssUF9Q&amp;s=09</t>
-  </si>
-  <si>
     <t>https://t.me/Waky002</t>
   </si>
   <si>
@@ -124,18 +115,12 @@
     <t>Pedro Test</t>
   </si>
   <si>
-    <t>Laughing, Fun, Yolo, Test</t>
-  </si>
-  <si>
     <t>Europe</t>
   </si>
   <si>
     <t>Africa</t>
   </si>
   <si>
-    <t>I'm a young and Aspiring individual, solely focus on making!</t>
-  </si>
-  <si>
     <t>Adura Crypto</t>
   </si>
   <si>
@@ -151,9 +136,6 @@
     <t>adura_crypto</t>
   </si>
   <si>
-    <t>https://x.com/Adura_Crypto?t=UNVxQ2jx-74VRqqfwXpK6g&amp;s=09</t>
-  </si>
-  <si>
     <t>https://t.me/adura_crypto</t>
   </si>
   <si>
@@ -166,20 +148,35 @@
     <t>Designer, Communication</t>
   </si>
   <si>
-    <t>Create content and been a good community engager will grow the project!</t>
-  </si>
-  <si>
-    <t>Kind and chill guy testing some things around for the community. Nothing else!</t>
-  </si>
-  <si>
     <t>https://media-hosting.imagekit.io//cbc8b7f36bff41b2/adura.jpg?Expires=1835048030&amp;Key-Pair-Id=K2ZIVPTIP2VGHC&amp;Signature=J79DvMTJP3W6F-rlQuzHBL19H9VHhq4CJsnfc55n67PkT-yhCfJH4kh6ir0de159gz1GSuJDM963k7Ox9Ufyl57XYOjVt9aGZwKrrwW6S50Sa5eYDyFP9UBr2dxJu2JMdGoQvQwBbT7Juq5da22F4Z0u4cwIjQuFSCi~rTNmPIlwrsTocpYtwiDepjTYOWzr7d5rbFMXmI9tjys5MD9uW6iwrYB0B1Ss2qyovf7nHlcGOWOIY2Azj94XQob9-xkV9d~gi5bo6OJa4eD3gT-rWFXvwX7qhhJsjEPp5mPpOL8jP8JCwK-Rx~jJJ8D~FG5eB86bNTNbeQHXEDYTjZmPgw__</t>
+  </si>
+  <si>
+    <t>English, Dutch</t>
+  </si>
+  <si>
+    <t>Just a chill guy, testing some things around for the community. Nothing else! Have fun!</t>
+  </si>
+  <si>
+    <t>I'm a young and aspiring individual, solely focus on making!</t>
+  </si>
+  <si>
+    <t>Create content and been a good community engager will grow the project for sure!</t>
+  </si>
+  <si>
+    <t>Waky001.badboo.inj</t>
+  </si>
+  <si>
+    <t>https://x.com/Adura_Crypto</t>
+  </si>
+  <si>
+    <t>https://x.com/Uwakmfon104</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -218,30 +215,8 @@
     </font>
     <font>
       <u/>
-      <sz val="9"/>
-      <color theme="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="10"/>
       <color theme="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF1A202C"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -267,7 +242,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -425,21 +400,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -480,18 +446,9 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -786,7 +743,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomLeft" activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -794,8 +751,8 @@
     <col min="1" max="1" width="18.90625" customWidth="1"/>
     <col min="2" max="2" width="19.6328125" customWidth="1"/>
     <col min="3" max="3" width="32.90625" customWidth="1"/>
-    <col min="4" max="4" width="18.90625" customWidth="1"/>
-    <col min="5" max="5" width="20.26953125" customWidth="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="30.08984375" customWidth="1"/>
     <col min="7" max="7" width="20.36328125" customWidth="1"/>
     <col min="8" max="8" width="34.36328125" customWidth="1"/>
@@ -856,7 +813,7 @@
         <v>14</v>
       </c>
       <c r="P1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -864,7 +821,7 @@
         <v>45711.51966435185</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>15</v>
@@ -873,36 +830,34 @@
         <v>16</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="F2" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H2" s="5" t="s">
+      <c r="I2" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="J2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="J2" s="5" t="s">
+      <c r="K2" s="6" t="s">
         <v>19</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>20</v>
       </c>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
-      <c r="N2" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="O2" s="18" t="s">
-        <v>40</v>
+      <c r="N2" s="6"/>
+      <c r="O2" s="14" t="s">
+        <v>35</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -910,115 +865,114 @@
         <v>45711.854409722226</v>
       </c>
       <c r="B3" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="9" t="s">
+      <c r="E3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="9" t="s">
+      <c r="G3" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="L3" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="J3" s="9" t="s">
+      <c r="M3" s="9" t="s">
         <v>24</v>
-      </c>
-      <c r="K3" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="L3" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="M3" s="9" t="s">
-        <v>27</v>
       </c>
       <c r="N3" s="11"/>
       <c r="O3" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="P3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <v>45713.416666666664</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="N4" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="P3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="15">
-        <v>45713.416666666664</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="F4" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="H4" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="I4" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="J4" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="K4" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="L4" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="M4" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="N4" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="O4" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="P4" s="17" t="s">
-        <v>32</v>
+      <c r="O4" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="P4" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="K2" r:id="rId1" xr:uid="{1E29A86F-8429-4225-A024-11672BE7FFC2}"/>
-    <hyperlink ref="N2" r:id="rId2" xr:uid="{767142E5-EA0D-4908-8208-94C6122D4A4A}"/>
-    <hyperlink ref="O2" r:id="rId3" display="https://x.com/InjPedro" xr:uid="{E5ECC9DD-2A19-4AF7-9657-553D9B2708B1}"/>
-    <hyperlink ref="C3" r:id="rId4" display="https://media-hosting.imagekit.io/82eaa26840424011/mediaThumbnail.jpg?Expires=1834949168&amp;Key-Pair-Id=K2ZIVPTIP2VGHC&amp;Signature=VBILeooaXE1EFhOW8EaJPeVNoj~YzJhrrN8qt8LEkKtgfWc23k31Jo1FxP4cHBk1lmcbvVdDb3Br9ASq0izXQdMTKAsOgeBEFt2vJzOe6dyXrZ5DBZksfE7LdT9tiiTeQcf-ZRK8~gcdM04GnJUCuS9bGys~sjW7Ia1QjOL8O0do3G2tr~kJC2srNmMs2OM26a02JqO-iqSPDTf5yWLVwG39WUnKPbZdvZG~cQosJ7Ehz-LNC1zu2FXa7YSwhEGYWT85rv9kbNnZgnBUyjcR~rhi4mnwQgUMs2EChJOVnIGluOJtDPiPawUIDpAcxMHhG9ng1~Bw5magLhTiYLZTiA__" xr:uid="{15B96512-8AE3-4CC4-93A5-E5BB24EB6FD3}"/>
-    <hyperlink ref="K3" r:id="rId5" xr:uid="{4B73D904-746B-48C4-ADC0-407A3991A6B0}"/>
-    <hyperlink ref="L3" r:id="rId6" xr:uid="{4068DAAA-C6F3-4207-ADF0-92847ED16754}"/>
-    <hyperlink ref="K4" r:id="rId7" tooltip="https://x.com/Adura_Crypto?t=UNVxQ2jx-74VRqqfwXpK6g&amp;s=09" xr:uid="{EE5ECB09-F4E1-4CD9-8D38-ED59E48BABC0}"/>
-    <hyperlink ref="L4" r:id="rId8" xr:uid="{7213A127-B4A4-4811-8E1D-94ADA127E983}"/>
-    <hyperlink ref="N4" r:id="rId9" tooltip="https://drive.google.com/file/d/151j_vNT2mDX4a3RMsGNxSZghWXvrvHWB/view?usp=drivesdk" xr:uid="{80A5573E-FC3E-4524-B962-518BF79CEF70}"/>
+    <hyperlink ref="O2" r:id="rId2" display="https://x.com/InjPedro" xr:uid="{E5ECC9DD-2A19-4AF7-9657-553D9B2708B1}"/>
+    <hyperlink ref="C3" r:id="rId3" display="https://media-hosting.imagekit.io/82eaa26840424011/mediaThumbnail.jpg?Expires=1834949168&amp;Key-Pair-Id=K2ZIVPTIP2VGHC&amp;Signature=VBILeooaXE1EFhOW8EaJPeVNoj~YzJhrrN8qt8LEkKtgfWc23k31Jo1FxP4cHBk1lmcbvVdDb3Br9ASq0izXQdMTKAsOgeBEFt2vJzOe6dyXrZ5DBZksfE7LdT9tiiTeQcf-ZRK8~gcdM04GnJUCuS9bGys~sjW7Ia1QjOL8O0do3G2tr~kJC2srNmMs2OM26a02JqO-iqSPDTf5yWLVwG39WUnKPbZdvZG~cQosJ7Ehz-LNC1zu2FXa7YSwhEGYWT85rv9kbNnZgnBUyjcR~rhi4mnwQgUMs2EChJOVnIGluOJtDPiPawUIDpAcxMHhG9ng1~Bw5magLhTiYLZTiA__" xr:uid="{15B96512-8AE3-4CC4-93A5-E5BB24EB6FD3}"/>
+    <hyperlink ref="K3" r:id="rId4" xr:uid="{4B73D904-746B-48C4-ADC0-407A3991A6B0}"/>
+    <hyperlink ref="L3" r:id="rId5" xr:uid="{4068DAAA-C6F3-4207-ADF0-92847ED16754}"/>
+    <hyperlink ref="K4" r:id="rId6" xr:uid="{EE5ECB09-F4E1-4CD9-8D38-ED59E48BABC0}"/>
+    <hyperlink ref="L4" r:id="rId7" xr:uid="{7213A127-B4A4-4811-8E1D-94ADA127E983}"/>
+    <hyperlink ref="N4" r:id="rId8" tooltip="https://drive.google.com/file/d/151j_vNT2mDX4a3RMsGNxSZghWXvrvHWB/view?usp=drivesdk" xr:uid="{80A5573E-FC3E-4524-B962-518BF79CEF70}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
   <tableParts count="1">
-    <tablePart r:id="rId11"/>
+    <tablePart r:id="rId10"/>
   </tableParts>
 </worksheet>
 </file>
--- a/pedroproject/myapp/talented.xlsx
+++ b/pedroproject/myapp/talented.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zonwi\Documents\GitHub\Website_Pedro_coin_backend\pedroproject\myapp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A23BA5F-29F5-45EF-BECF-1C33C896AB1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31954CFA-759D-4DA4-BCAB-A01ABCCF3A9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="72">
   <si>
     <t>Tijdstempel</t>
   </si>
@@ -170,13 +170,79 @@
   </si>
   <si>
     <t>https://x.com/Uwakmfon104</t>
+  </si>
+  <si>
+    <t>MRNAME</t>
+  </si>
+  <si>
+    <t>https://imagekit.io/tools/asset-public-link?detail=%7B%22name%22%3A%22IMG_0008.jpeg%22%2C%22type%22%3A%22image%2Fjpeg%22%2C%22signedurl_expire%22%3A%222028-02-25T06%3A08%3A26.446Z%22%2C%22signedUrl%22%3A%22https%3A%2F%2Fmedia-hosting.imagekit.io%2F%2F7a2329502aee448e%2FIMG_0008.jpeg%3FExpires%3D1835071706%26Key-Pair-Id%3DK2ZIVPTIP2VGHC%26Signature%3DHeXa0pxz9~OTIu2Sm3mVxOuGelmDVjEzlvx-qwSDHTm9NVejY1NAMPBZ1Iq5zNzI7NqpPVlTNr~p-TnqgXGX-Fy7P53asYPomrud0XEkWyvMPgjm-DkZNTQqEHlY4bsN8puUdnP2deHeuHe9-SXLOmCloLO03IDdl7KBSQ8zxi4fn~xiTW4eCjkd0ZC~u~3iYYLT4Isxgc2UpvD2A-cSWx5DJ~XCJCoDtKC0g6y~U~u3x1XkXRCiXrAZfU~FXXkDLTez8yZ5U151lcw8x7SUnLDoxmZYV95RMVDFJeZRY7MRO9c9o~bW8C5FXIIGag3LSYdn45aNf5u8A94TKdBYUg__%22%7D</t>
+  </si>
+  <si>
+    <t>I’m an experienced collab manager, community manager and a moderator</t>
+  </si>
+  <si>
+    <t>Moderator, Collaboration</t>
+  </si>
+  <si>
+    <t>College</t>
+  </si>
+  <si>
+    <t>https://x.com/kingname770?s=21</t>
+  </si>
+  <si>
+    <t>mrname770@gmail.com</t>
+  </si>
+  <si>
+    <t>https://x.com/kingname770/status/1876302273267323367?s=46</t>
+  </si>
+  <si>
+    <t>I am an nft holder</t>
+  </si>
+  <si>
+    <t>Ninja</t>
+  </si>
+  <si>
+    <t>Big Zetsu</t>
+  </si>
+  <si>
+    <t>https://images.talis.art/tokens/67acbe965bb1ebd34c8ab885/mediaThumbnail</t>
+  </si>
+  <si>
+    <t>Communication, Designer, Collaboration, Social Media Manager</t>
+  </si>
+  <si>
+    <t>bvg_zetsu</t>
+  </si>
+  <si>
+    <t>https://x.com/bvg_zetsu</t>
+  </si>
+  <si>
+    <t>https://telegram.com/bvg_zetsu</t>
+  </si>
+  <si>
+    <t>wiwo.layeo@gmail.com</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1a65o9XIMwG7fDuMaJQpUgfaBhAkBPyIJ/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://www.mintscan.io/injective/tx/C940597780408EB19B607F16C2FA9B269D0C8B86C3399D0A077B06701570D603</t>
+  </si>
+  <si>
+    <t>I am a passionate crypto enthusiast with high class experience.</t>
+  </si>
+  <si>
+    <t>https://t.me/MRNAME770</t>
+  </si>
+  <si>
+    <t>I am a resourceful and experienced IT professional with a background in Frontend Web.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -221,6 +287,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="9"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -242,7 +323,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -398,6 +479,127 @@
       <bottom style="medium">
         <color rgb="FF442F65"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF442F65"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFF8F9FA"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFF8F9FA"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFF8F9FA"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFF8F9FA"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFF8F9FA"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFF8F9FA"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFF8F9FA"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF442F65"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFF8F9FA"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFF8F9FA"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF442F65"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -405,7 +607,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -447,6 +649,42 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="3" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="3" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -515,7 +753,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses1" displayName="Form_Responses1" ref="A1:P4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses1" displayName="Form_Responses1" ref="A1:P7">
   <tableColumns count="16">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Tijdstempel"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="What is your name?" dataDxfId="1"/>
@@ -739,11 +977,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:P7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O5" sqref="O5"/>
+      <selection pane="bottomLeft" activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -958,6 +1196,123 @@
         <v>29</v>
       </c>
     </row>
+    <row r="5" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="15">
+        <v>45713.311203703706</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="I5" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="K5" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="L5" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="M5" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="N5" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="O5" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="P5" s="16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="20">
+        <v>45713.852731481478</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="F6" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="J6" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="K6" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="L6" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="M6" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="N6" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="O6" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="P6" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="26"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="26"/>
+      <c r="P7" s="26"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="K2" r:id="rId1" xr:uid="{1E29A86F-8429-4225-A024-11672BE7FFC2}"/>
@@ -968,11 +1323,20 @@
     <hyperlink ref="K4" r:id="rId6" xr:uid="{EE5ECB09-F4E1-4CD9-8D38-ED59E48BABC0}"/>
     <hyperlink ref="L4" r:id="rId7" xr:uid="{7213A127-B4A4-4811-8E1D-94ADA127E983}"/>
     <hyperlink ref="N4" r:id="rId8" tooltip="https://drive.google.com/file/d/151j_vNT2mDX4a3RMsGNxSZghWXvrvHWB/view?usp=drivesdk" xr:uid="{80A5573E-FC3E-4524-B962-518BF79CEF70}"/>
+    <hyperlink ref="C5" r:id="rId9" display="https://imagekit.io/tools/asset-public-link?detail=%7B%22name%22%3A%22IMG_0008.jpeg%22%2C%22type%22%3A%22image%2Fjpeg%22%2C%22signedurl_expire%22%3A%222028-02-25T06%3A08%3A26.446Z%22%2C%22signedUrl%22%3A%22https%3A%2F%2Fmedia-hosting.imagekit.io%2F%2F7a2329502aee448e%2FIMG_0008.jpeg%3FExpires%3D1835071706%26Key-Pair-Id%3DK2ZIVPTIP2VGHC%26Signature%3DHeXa0pxz9~OTIu2Sm3mVxOuGelmDVjEzlvx-qwSDHTm9NVejY1NAMPBZ1Iq5zNzI7NqpPVlTNr~p-TnqgXGX-Fy7P53asYPomrud0XEkWyvMPgjm-DkZNTQqEHlY4bsN8puUdnP2deHeuHe9-SXLOmCloLO03IDdl7KBSQ8zxi4fn~xiTW4eCjkd0ZC~u~3iYYLT4Isxgc2UpvD2A-cSWx5DJ~XCJCoDtKC0g6y~U~u3x1XkXRCiXrAZfU~FXXkDLTez8yZ5U151lcw8x7SUnLDoxmZYV95RMVDFJeZRY7MRO9c9o~bW8C5FXIIGag3LSYdn45aNf5u8A94TKdBYUg__%22%7D" xr:uid="{64B2394B-E6A7-4ED6-AEBC-1724B153E7A1}"/>
+    <hyperlink ref="K5" r:id="rId10" xr:uid="{2EDCFA0C-D6E6-4022-95B5-C40AC98DC94D}"/>
+    <hyperlink ref="N5" r:id="rId11" xr:uid="{269EF69C-4D14-4CBC-81F9-AC585A3F4053}"/>
+    <hyperlink ref="C6" r:id="rId12" xr:uid="{309871E7-1B02-41DB-A0A1-990742ADE683}"/>
+    <hyperlink ref="K6" r:id="rId13" xr:uid="{6F515F0E-5778-4A3D-ABFD-40193F49D1A2}"/>
+    <hyperlink ref="L6" r:id="rId14" xr:uid="{E4978691-63D2-4254-A65F-41A1A4AF020F}"/>
+    <hyperlink ref="N6" r:id="rId15" xr:uid="{C2722D41-934F-4E0B-B57B-2B65FC378DC5}"/>
+    <hyperlink ref="O6" r:id="rId16" xr:uid="{CC30F172-A4DE-4CBD-8FE2-5FC180C3B6F0}"/>
+    <hyperlink ref="L5" r:id="rId17" xr:uid="{E642D7D4-C6F8-4851-A54C-C94E5BC8CA1D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId18"/>
   <tableParts count="1">
-    <tablePart r:id="rId10"/>
+    <tablePart r:id="rId19"/>
   </tableParts>
 </worksheet>
 </file>
--- a/pedroproject/myapp/talented.xlsx
+++ b/pedroproject/myapp/talented.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zonwi\Documents\GitHub\Website_Pedro_coin_backend\pedroproject\myapp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31954CFA-759D-4DA4-BCAB-A01ABCCF3A9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B03E5CDA-91F7-41AD-848D-40FC06843DF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -175,9 +175,6 @@
     <t>MRNAME</t>
   </si>
   <si>
-    <t>https://imagekit.io/tools/asset-public-link?detail=%7B%22name%22%3A%22IMG_0008.jpeg%22%2C%22type%22%3A%22image%2Fjpeg%22%2C%22signedurl_expire%22%3A%222028-02-25T06%3A08%3A26.446Z%22%2C%22signedUrl%22%3A%22https%3A%2F%2Fmedia-hosting.imagekit.io%2F%2F7a2329502aee448e%2FIMG_0008.jpeg%3FExpires%3D1835071706%26Key-Pair-Id%3DK2ZIVPTIP2VGHC%26Signature%3DHeXa0pxz9~OTIu2Sm3mVxOuGelmDVjEzlvx-qwSDHTm9NVejY1NAMPBZ1Iq5zNzI7NqpPVlTNr~p-TnqgXGX-Fy7P53asYPomrud0XEkWyvMPgjm-DkZNTQqEHlY4bsN8puUdnP2deHeuHe9-SXLOmCloLO03IDdl7KBSQ8zxi4fn~xiTW4eCjkd0ZC~u~3iYYLT4Isxgc2UpvD2A-cSWx5DJ~XCJCoDtKC0g6y~U~u3x1XkXRCiXrAZfU~FXXkDLTez8yZ5U151lcw8x7SUnLDoxmZYV95RMVDFJeZRY7MRO9c9o~bW8C5FXIIGag3LSYdn45aNf5u8A94TKdBYUg__%22%7D</t>
-  </si>
-  <si>
     <t>I’m an experienced collab manager, community manager and a moderator</t>
   </si>
   <si>
@@ -236,13 +233,16 @@
   </si>
   <si>
     <t>I am a resourceful and experienced IT professional with a background in Frontend Web.</t>
+  </si>
+  <si>
+    <t>https://media-hosting.imagekit.io//7a2329502aee448e/IMG_0008.jpeg?Expires=1835071706&amp;Key-Pair-Id=K2ZIVPTIP2VGHC&amp;Signature=HeXa0pxz9~OTIu2Sm3mVxOuGelmDVjEzlvx-qwSDHTm9NVejY1NAMPBZ1Iq5zNzI7NqpPVlTNr~p-TnqgXGX-Fy7P53asYPomrud0XEkWyvMPgjm-DkZNTQqEHlY4bsN8puUdnP2deHeuHe9-SXLOmCloLO03IDdl7KBSQ8zxi4fn~xiTW4eCjkd0ZC~u~3iYYLT4Isxgc2UpvD2A-cSWx5DJ~XCJCoDtKC0g6y~U~u3x1XkXRCiXrAZfU~FXXkDLTez8yZ5U151lcw8x7SUnLDoxmZYV95RMVDFJeZRY7MRO9c9o~bW8C5FXIIGag3LSYdn45aNf5u8A94TKdBYUg__</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -288,14 +288,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="9"/>
-      <color theme="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -323,7 +315,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -505,21 +497,6 @@
       </right>
       <top style="medium">
         <color rgb="FFF8F9FA"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFF8F9FA"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="medium">
         <color rgb="FFF8F9FA"/>
@@ -607,7 +584,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -660,31 +637,24 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="22" fontId="3" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="3" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -981,7 +951,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I2" sqref="I2"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C5:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1203,14 +1173,14 @@
       <c r="B5" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="E5" s="16" t="s">
         <v>52</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>53</v>
       </c>
       <c r="F5" s="16" t="s">
         <v>22</v>
@@ -1219,99 +1189,86 @@
         <v>32</v>
       </c>
       <c r="H5" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I5" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J5" s="16" t="s">
         <v>50</v>
       </c>
       <c r="K5" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="L5" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="M5" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="L5" s="28" t="s">
+      <c r="N5" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="O5" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="P5" s="16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="19">
+        <v>45713.852731481478</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="M5" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="N5" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="O5" s="16" t="s">
+      <c r="J6" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="K6" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="L6" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="M6" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="N6" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="O6" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="P6" s="21" t="s">
         <v>58</v>
-      </c>
-      <c r="P5" s="16" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="20">
-        <v>45713.852731481478</v>
-      </c>
-      <c r="B6" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="D6" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="F6" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="H6" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="I6" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="J6" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="K6" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="L6" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="M6" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="N6" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="O6" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="P6" s="23" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="26"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="M7" s="26"/>
-      <c r="N7" s="26"/>
-      <c r="O7" s="26"/>
-      <c r="P7" s="26"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="24"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1323,20 +1280,19 @@
     <hyperlink ref="K4" r:id="rId6" xr:uid="{EE5ECB09-F4E1-4CD9-8D38-ED59E48BABC0}"/>
     <hyperlink ref="L4" r:id="rId7" xr:uid="{7213A127-B4A4-4811-8E1D-94ADA127E983}"/>
     <hyperlink ref="N4" r:id="rId8" tooltip="https://drive.google.com/file/d/151j_vNT2mDX4a3RMsGNxSZghWXvrvHWB/view?usp=drivesdk" xr:uid="{80A5573E-FC3E-4524-B962-518BF79CEF70}"/>
-    <hyperlink ref="C5" r:id="rId9" display="https://imagekit.io/tools/asset-public-link?detail=%7B%22name%22%3A%22IMG_0008.jpeg%22%2C%22type%22%3A%22image%2Fjpeg%22%2C%22signedurl_expire%22%3A%222028-02-25T06%3A08%3A26.446Z%22%2C%22signedUrl%22%3A%22https%3A%2F%2Fmedia-hosting.imagekit.io%2F%2F7a2329502aee448e%2FIMG_0008.jpeg%3FExpires%3D1835071706%26Key-Pair-Id%3DK2ZIVPTIP2VGHC%26Signature%3DHeXa0pxz9~OTIu2Sm3mVxOuGelmDVjEzlvx-qwSDHTm9NVejY1NAMPBZ1Iq5zNzI7NqpPVlTNr~p-TnqgXGX-Fy7P53asYPomrud0XEkWyvMPgjm-DkZNTQqEHlY4bsN8puUdnP2deHeuHe9-SXLOmCloLO03IDdl7KBSQ8zxi4fn~xiTW4eCjkd0ZC~u~3iYYLT4Isxgc2UpvD2A-cSWx5DJ~XCJCoDtKC0g6y~U~u3x1XkXRCiXrAZfU~FXXkDLTez8yZ5U151lcw8x7SUnLDoxmZYV95RMVDFJeZRY7MRO9c9o~bW8C5FXIIGag3LSYdn45aNf5u8A94TKdBYUg__%22%7D" xr:uid="{64B2394B-E6A7-4ED6-AEBC-1724B153E7A1}"/>
-    <hyperlink ref="K5" r:id="rId10" xr:uid="{2EDCFA0C-D6E6-4022-95B5-C40AC98DC94D}"/>
-    <hyperlink ref="N5" r:id="rId11" xr:uid="{269EF69C-4D14-4CBC-81F9-AC585A3F4053}"/>
-    <hyperlink ref="C6" r:id="rId12" xr:uid="{309871E7-1B02-41DB-A0A1-990742ADE683}"/>
-    <hyperlink ref="K6" r:id="rId13" xr:uid="{6F515F0E-5778-4A3D-ABFD-40193F49D1A2}"/>
-    <hyperlink ref="L6" r:id="rId14" xr:uid="{E4978691-63D2-4254-A65F-41A1A4AF020F}"/>
-    <hyperlink ref="N6" r:id="rId15" xr:uid="{C2722D41-934F-4E0B-B57B-2B65FC378DC5}"/>
-    <hyperlink ref="O6" r:id="rId16" xr:uid="{CC30F172-A4DE-4CBD-8FE2-5FC180C3B6F0}"/>
-    <hyperlink ref="L5" r:id="rId17" xr:uid="{E642D7D4-C6F8-4851-A54C-C94E5BC8CA1D}"/>
+    <hyperlink ref="K5" r:id="rId9" xr:uid="{2EDCFA0C-D6E6-4022-95B5-C40AC98DC94D}"/>
+    <hyperlink ref="N5" r:id="rId10" xr:uid="{269EF69C-4D14-4CBC-81F9-AC585A3F4053}"/>
+    <hyperlink ref="C6" r:id="rId11" xr:uid="{309871E7-1B02-41DB-A0A1-990742ADE683}"/>
+    <hyperlink ref="K6" r:id="rId12" xr:uid="{6F515F0E-5778-4A3D-ABFD-40193F49D1A2}"/>
+    <hyperlink ref="L6" r:id="rId13" xr:uid="{E4978691-63D2-4254-A65F-41A1A4AF020F}"/>
+    <hyperlink ref="N6" r:id="rId14" xr:uid="{C2722D41-934F-4E0B-B57B-2B65FC378DC5}"/>
+    <hyperlink ref="O6" r:id="rId15" xr:uid="{CC30F172-A4DE-4CBD-8FE2-5FC180C3B6F0}"/>
+    <hyperlink ref="L5" r:id="rId16" xr:uid="{E642D7D4-C6F8-4851-A54C-C94E5BC8CA1D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId18"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId17"/>
   <tableParts count="1">
-    <tablePart r:id="rId19"/>
+    <tablePart r:id="rId18"/>
   </tableParts>
 </worksheet>
 </file>
--- a/pedroproject/myapp/talented.xlsx
+++ b/pedroproject/myapp/talented.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zonwi\Documents\GitHub\Website_Pedro_coin_backend\pedroproject\myapp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B03E5CDA-91F7-41AD-848D-40FC06843DF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38DDFEE0-E697-40AE-AD06-2B11ACAE520B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -175,9 +175,6 @@
     <t>MRNAME</t>
   </si>
   <si>
-    <t>I’m an experienced collab manager, community manager and a moderator</t>
-  </si>
-  <si>
     <t>Moderator, Collaboration</t>
   </si>
   <si>
@@ -236,6 +233,9 @@
   </si>
   <si>
     <t>https://media-hosting.imagekit.io//7a2329502aee448e/IMG_0008.jpeg?Expires=1835071706&amp;Key-Pair-Id=K2ZIVPTIP2VGHC&amp;Signature=HeXa0pxz9~OTIu2Sm3mVxOuGelmDVjEzlvx-qwSDHTm9NVejY1NAMPBZ1Iq5zNzI7NqpPVlTNr~p-TnqgXGX-Fy7P53asYPomrud0XEkWyvMPgjm-DkZNTQqEHlY4bsN8puUdnP2deHeuHe9-SXLOmCloLO03IDdl7KBSQ8zxi4fn~xiTW4eCjkd0ZC~u~3iYYLT4Isxgc2UpvD2A-cSWx5DJ~XCJCoDtKC0g6y~U~u3x1XkXRCiXrAZfU~FXXkDLTez8yZ5U151lcw8x7SUnLDoxmZYV95RMVDFJeZRY7MRO9c9o~bW8C5FXIIGag3LSYdn45aNf5u8A94TKdBYUg__</t>
+  </si>
+  <si>
+    <t>Collab Manager</t>
   </si>
 </sst>
 </file>
@@ -951,7 +951,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C5:C6"/>
+      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1174,13 +1174,13 @@
         <v>50</v>
       </c>
       <c r="C5" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="E5" s="16" t="s">
         <v>51</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>52</v>
       </c>
       <c r="F5" s="16" t="s">
         <v>22</v>
@@ -1189,31 +1189,31 @@
         <v>32</v>
       </c>
       <c r="H5" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I5" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J5" s="16" t="s">
         <v>50</v>
       </c>
       <c r="K5" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="L5" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="M5" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="L5" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="M5" s="16" t="s">
+      <c r="N5" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="N5" s="17" t="s">
+      <c r="O5" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="O5" s="16" t="s">
+      <c r="P5" s="16" t="s">
         <v>57</v>
-      </c>
-      <c r="P5" s="16" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1221,16 +1221,16 @@
         <v>45713.852731481478</v>
       </c>
       <c r="B6" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="13" t="s">
         <v>59</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>60</v>
       </c>
       <c r="D6" s="21" t="s">
         <v>21</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F6" s="21" t="s">
         <v>22</v>
@@ -1242,28 +1242,28 @@
         <v>34</v>
       </c>
       <c r="I6" s="21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J6" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="K6" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="K6" s="22" t="s">
+      <c r="L6" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="L6" s="22" t="s">
+      <c r="M6" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="M6" s="21" t="s">
+      <c r="N6" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="N6" s="22" t="s">
+      <c r="O6" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="O6" s="22" t="s">
-        <v>67</v>
-      </c>
       <c r="P6" s="21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">

--- a/pedroproject/myapp/talented.xlsx
+++ b/pedroproject/myapp/talented.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zonwi\Documents\GitHub\Website_Pedro_coin_backend\pedroproject\myapp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38DDFEE0-E697-40AE-AD06-2B11ACAE520B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E79E9266-7BFF-4B6B-9DE2-C267DBCFCB4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -202,9 +202,6 @@
     <t>https://images.talis.art/tokens/67acbe965bb1ebd34c8ab885/mediaThumbnail</t>
   </si>
   <si>
-    <t>Communication, Designer, Collaboration, Social Media Manager</t>
-  </si>
-  <si>
     <t>bvg_zetsu</t>
   </si>
   <si>
@@ -236,6 +233,9 @@
   </si>
   <si>
     <t>Collab Manager</t>
+  </si>
+  <si>
+    <t>Communication, Designer</t>
   </si>
 </sst>
 </file>
@@ -951,7 +951,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1174,10 +1174,10 @@
         <v>50</v>
       </c>
       <c r="C5" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="16" t="s">
         <v>70</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>71</v>
       </c>
       <c r="E5" s="16" t="s">
         <v>51</v>
@@ -1192,7 +1192,7 @@
         <v>52</v>
       </c>
       <c r="I5" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J5" s="16" t="s">
         <v>50</v>
@@ -1201,7 +1201,7 @@
         <v>53</v>
       </c>
       <c r="L5" s="25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M5" s="16" t="s">
         <v>54</v>
@@ -1230,7 +1230,7 @@
         <v>21</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="F6" s="21" t="s">
         <v>22</v>
@@ -1242,25 +1242,25 @@
         <v>34</v>
       </c>
       <c r="I6" s="21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J6" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="K6" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="K6" s="22" t="s">
+      <c r="L6" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="L6" s="22" t="s">
+      <c r="M6" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="M6" s="21" t="s">
+      <c r="N6" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="N6" s="22" t="s">
+      <c r="O6" s="22" t="s">
         <v>65</v>
-      </c>
-      <c r="O6" s="22" t="s">
-        <v>66</v>
       </c>
       <c r="P6" s="21" t="s">
         <v>57</v>

--- a/pedroproject/myapp/talented.xlsx
+++ b/pedroproject/myapp/talented.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zonwi\Documents\GitHub\Website_Pedro_coin_backend\pedroproject\myapp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E79E9266-7BFF-4B6B-9DE2-C267DBCFCB4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E98000AE-6C36-404B-B268-C0E2F59B95D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -226,9 +226,6 @@
     <t>https://t.me/MRNAME770</t>
   </si>
   <si>
-    <t>I am a resourceful and experienced IT professional with a background in Frontend Web.</t>
-  </si>
-  <si>
     <t>https://media-hosting.imagekit.io//7a2329502aee448e/IMG_0008.jpeg?Expires=1835071706&amp;Key-Pair-Id=K2ZIVPTIP2VGHC&amp;Signature=HeXa0pxz9~OTIu2Sm3mVxOuGelmDVjEzlvx-qwSDHTm9NVejY1NAMPBZ1Iq5zNzI7NqpPVlTNr~p-TnqgXGX-Fy7P53asYPomrud0XEkWyvMPgjm-DkZNTQqEHlY4bsN8puUdnP2deHeuHe9-SXLOmCloLO03IDdl7KBSQ8zxi4fn~xiTW4eCjkd0ZC~u~3iYYLT4Isxgc2UpvD2A-cSWx5DJ~XCJCoDtKC0g6y~U~u3x1XkXRCiXrAZfU~FXXkDLTez8yZ5U151lcw8x7SUnLDoxmZYV95RMVDFJeZRY7MRO9c9o~bW8C5FXIIGag3LSYdn45aNf5u8A94TKdBYUg__</t>
   </si>
   <si>
@@ -236,6 +233,9 @@
   </si>
   <si>
     <t>Communication, Designer</t>
+  </si>
+  <si>
+    <t>I am an experienced IT professional with a background in marketing and design.</t>
   </si>
 </sst>
 </file>
@@ -949,9 +949,9 @@
   </sheetPr>
   <dimension ref="A1:P7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
+      <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1174,10 +1174,10 @@
         <v>50</v>
       </c>
       <c r="C5" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="16" t="s">
         <v>69</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>70</v>
       </c>
       <c r="E5" s="16" t="s">
         <v>51</v>
@@ -1230,7 +1230,7 @@
         <v>21</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F6" s="21" t="s">
         <v>22</v>
@@ -1242,7 +1242,7 @@
         <v>34</v>
       </c>
       <c r="I6" s="21" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J6" s="21" t="s">
         <v>60</v>

--- a/pedroproject/myapp/talented.xlsx
+++ b/pedroproject/myapp/talented.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zonwi\Documents\GitHub\Website_Pedro_coin_backend\pedroproject\myapp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E98000AE-6C36-404B-B268-C0E2F59B95D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC177B36-886F-4A7D-80AE-A11F6441C595}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="12980" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Formulierreacties 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="80">
   <si>
     <t>Tijdstempel</t>
   </si>
@@ -151,9 +151,6 @@
     <t>https://media-hosting.imagekit.io//cbc8b7f36bff41b2/adura.jpg?Expires=1835048030&amp;Key-Pair-Id=K2ZIVPTIP2VGHC&amp;Signature=J79DvMTJP3W6F-rlQuzHBL19H9VHhq4CJsnfc55n67PkT-yhCfJH4kh6ir0de159gz1GSuJDM963k7Ox9Ufyl57XYOjVt9aGZwKrrwW6S50Sa5eYDyFP9UBr2dxJu2JMdGoQvQwBbT7Juq5da22F4Z0u4cwIjQuFSCi~rTNmPIlwrsTocpYtwiDepjTYOWzr7d5rbFMXmI9tjys5MD9uW6iwrYB0B1Ss2qyovf7nHlcGOWOIY2Azj94XQob9-xkV9d~gi5bo6OJa4eD3gT-rWFXvwX7qhhJsjEPp5mPpOL8jP8JCwK-Rx~jJJ8D~FG5eB86bNTNbeQHXEDYTjZmPgw__</t>
   </si>
   <si>
-    <t>English, Dutch</t>
-  </si>
-  <si>
     <t>Just a chill guy, testing some things around for the community. Nothing else! Have fun!</t>
   </si>
   <si>
@@ -236,13 +233,40 @@
   </si>
   <si>
     <t>I am an experienced IT professional with a background in marketing and design.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1_dRvU7jDPthR1w5dX1yFgKuxVMAcGPHP/view</t>
+  </si>
+  <si>
+    <t>https://t.me/Altamashkhuwaja</t>
+  </si>
+  <si>
+    <t>https://x.com/AltamashKPRMR</t>
+  </si>
+  <si>
+    <t>Dragon_knight</t>
+  </si>
+  <si>
+    <t>Asia</t>
+  </si>
+  <si>
+    <t>Dutch</t>
+  </si>
+  <si>
+    <t>Dragon Knight</t>
+  </si>
+  <si>
+    <t>Advertising, Communication</t>
+  </si>
+  <si>
+    <t>Highly Creative, Multi-Talented Visual Artist with Exensive Knowledge &amp; Experience in Adverising.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -287,13 +311,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -584,7 +601,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -652,11 +669,13 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -949,9 +968,9 @@
   </sheetPr>
   <dimension ref="A1:P7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1041,7 +1060,7 @@
         <v>26</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>31</v>
@@ -1050,7 +1069,7 @@
         <v>17</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>18</v>
@@ -1094,13 +1113,13 @@
         <v>17</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L3" s="10" t="s">
         <v>23</v>
@@ -1142,13 +1161,13 @@
         <v>34</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J4" s="5" t="s">
         <v>37</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>38</v>
@@ -1171,16 +1190,16 @@
         <v>45713.311203703706</v>
       </c>
       <c r="B5" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" s="16" t="s">
         <v>50</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>51</v>
       </c>
       <c r="F5" s="16" t="s">
         <v>22</v>
@@ -1189,31 +1208,31 @@
         <v>32</v>
       </c>
       <c r="H5" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="I5" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="J5" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="K5" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="I5" s="16" t="s">
+      <c r="L5" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="J5" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="K5" s="17" t="s">
+      <c r="M5" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="L5" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="M5" s="16" t="s">
+      <c r="N5" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="N5" s="17" t="s">
+      <c r="O5" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="O5" s="16" t="s">
+      <c r="P5" s="16" t="s">
         <v>56</v>
-      </c>
-      <c r="P5" s="16" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1221,16 +1240,16 @@
         <v>45713.852731481478</v>
       </c>
       <c r="B6" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="13" t="s">
         <v>58</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>59</v>
       </c>
       <c r="D6" s="21" t="s">
         <v>21</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F6" s="21" t="s">
         <v>22</v>
@@ -1242,33 +1261,76 @@
         <v>34</v>
       </c>
       <c r="I6" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="J6" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="K6" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="L6" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="M6" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="N6" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="O6" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="P6" s="21" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="27">
+        <v>45713</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="F7" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="H7" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="J7" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="K7" t="s">
+        <v>73</v>
+      </c>
+      <c r="L7" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="N7" t="s">
         <v>71</v>
       </c>
-      <c r="J6" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="K6" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="L6" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="M6" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="N6" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="O6" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="P6" s="21" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="23"/>
-      <c r="C7" s="24"/>
+      <c r="O7" t="s">
+        <v>35</v>
+      </c>
+      <c r="P7" t="s">
+        <v>28</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1288,11 +1350,13 @@
     <hyperlink ref="N6" r:id="rId14" xr:uid="{C2722D41-934F-4E0B-B57B-2B65FC378DC5}"/>
     <hyperlink ref="O6" r:id="rId15" xr:uid="{CC30F172-A4DE-4CBD-8FE2-5FC180C3B6F0}"/>
     <hyperlink ref="L5" r:id="rId16" xr:uid="{E642D7D4-C6F8-4851-A54C-C94E5BC8CA1D}"/>
+    <hyperlink ref="L7" r:id="rId17" tooltip="https://t.me/Altamashkhuwaja" xr:uid="{959B2A36-CAC1-4B14-B8CA-457CB26633B9}"/>
+    <hyperlink ref="C7" r:id="rId18" xr:uid="{30D17282-BA6A-45E2-8F32-445B7C260554}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId17"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId19"/>
   <tableParts count="1">
-    <tablePart r:id="rId18"/>
+    <tablePart r:id="rId20"/>
   </tableParts>
 </worksheet>
 </file>
--- a/pedroproject/myapp/talented.xlsx
+++ b/pedroproject/myapp/talented.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zonwi\Documents\GitHub\Website_Pedro_coin_backend\pedroproject\myapp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC177B36-886F-4A7D-80AE-A11F6441C595}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC8DFF20-E232-4DD5-BAE4-62093C536F5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="12980" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2660" yWindow="2660" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Formulierreacties 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="81">
   <si>
     <t>Tijdstempel</t>
   </si>
@@ -259,14 +259,17 @@
     <t>Advertising, Communication</t>
   </si>
   <si>
-    <t>Highly Creative, Multi-Talented Visual Artist with Exensive Knowledge &amp; Experience in Adverising.</t>
+    <t>Creative, Multi-Talented Visual Artist with Extensive Advertising Experience.</t>
+  </si>
+  <si>
+    <t>https://media-hosting.imagekit.io//2bd71dd975f646c6/hoWqT2HF_400x400.jpg?Expires=1835210653&amp;Key-Pair-Id=K2ZIVPTIP2VGHC&amp;Signature=wd0UEQ0con8mi-6itSOqy1Y3ApPUy3FsYV7-lwD5y~3GZKWHXaxRcTmy0~1XLALwdz5bYwavgz~MoVkULPs4vOMaZ2sFmWsEtNziRS5PO55Q1QYF~PBR2FPiCQNKdVd~ks~Xi8z6ToA1tdaDcrEIPaa2wu-oyuUIHpUY9W9DSGkS8Mko0M5-2ZyonWXCTTYiqKlCATRju30eFAr4qtjgrm3XDm4uSSFEhDjA0QbArdWj~jVVvJl7bG1vi0BcqFfD5bFM7ZVnuaAFDZXLtsDP2YomWPk3gRnSpI0BSLZow-zUc-dKDqFnYYGUVcUdrPHJgCBL0bsA5vyHNeEIb~YVfA__</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -311,6 +314,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF1A202C"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -601,7 +611,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -676,6 +686,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1285,15 +1296,15 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="27">
         <v>45713</v>
       </c>
       <c r="B7" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="C7" s="13" t="s">
-        <v>58</v>
+      <c r="C7" s="28" t="s">
+        <v>80</v>
       </c>
       <c r="D7" s="25" t="s">
         <v>21</v>
@@ -1310,7 +1321,7 @@
       <c r="H7" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="I7" s="25" t="s">
+      <c r="I7" t="s">
         <v>79</v>
       </c>
       <c r="J7" s="25" t="s">
@@ -1351,12 +1362,11 @@
     <hyperlink ref="O6" r:id="rId15" xr:uid="{CC30F172-A4DE-4CBD-8FE2-5FC180C3B6F0}"/>
     <hyperlink ref="L5" r:id="rId16" xr:uid="{E642D7D4-C6F8-4851-A54C-C94E5BC8CA1D}"/>
     <hyperlink ref="L7" r:id="rId17" tooltip="https://t.me/Altamashkhuwaja" xr:uid="{959B2A36-CAC1-4B14-B8CA-457CB26633B9}"/>
-    <hyperlink ref="C7" r:id="rId18" xr:uid="{30D17282-BA6A-45E2-8F32-445B7C260554}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId19"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId18"/>
   <tableParts count="1">
-    <tablePart r:id="rId20"/>
+    <tablePart r:id="rId19"/>
   </tableParts>
 </worksheet>
 </file>
--- a/pedroproject/myapp/talented.xlsx
+++ b/pedroproject/myapp/talented.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zonwi\Documents\GitHub\Website_Pedro_coin_backend\pedroproject\myapp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC8DFF20-E232-4DD5-BAE4-62093C536F5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41D8CD7A-BE85-402B-A1E7-EF929F5A053F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2660" yWindow="2660" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30612" yWindow="816" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Formulierreacties 1" sheetId="1" r:id="rId1"/>
@@ -151,9 +151,6 @@
     <t>https://media-hosting.imagekit.io//cbc8b7f36bff41b2/adura.jpg?Expires=1835048030&amp;Key-Pair-Id=K2ZIVPTIP2VGHC&amp;Signature=J79DvMTJP3W6F-rlQuzHBL19H9VHhq4CJsnfc55n67PkT-yhCfJH4kh6ir0de159gz1GSuJDM963k7Ox9Ufyl57XYOjVt9aGZwKrrwW6S50Sa5eYDyFP9UBr2dxJu2JMdGoQvQwBbT7Juq5da22F4Z0u4cwIjQuFSCi~rTNmPIlwrsTocpYtwiDepjTYOWzr7d5rbFMXmI9tjys5MD9uW6iwrYB0B1Ss2qyovf7nHlcGOWOIY2Azj94XQob9-xkV9d~gi5bo6OJa4eD3gT-rWFXvwX7qhhJsjEPp5mPpOL8jP8JCwK-Rx~jJJ8D~FG5eB86bNTNbeQHXEDYTjZmPgw__</t>
   </si>
   <si>
-    <t>Just a chill guy, testing some things around for the community. Nothing else! Have fun!</t>
-  </si>
-  <si>
     <t>I'm a young and aspiring individual, solely focus on making!</t>
   </si>
   <si>
@@ -217,9 +214,6 @@
     <t>https://www.mintscan.io/injective/tx/C940597780408EB19B607F16C2FA9B269D0C8B86C3399D0A077B06701570D603</t>
   </si>
   <si>
-    <t>I am a passionate crypto enthusiast with high class experience.</t>
-  </si>
-  <si>
     <t>https://t.me/MRNAME770</t>
   </si>
   <si>
@@ -259,10 +253,16 @@
     <t>Advertising, Communication</t>
   </si>
   <si>
-    <t>Creative, Multi-Talented Visual Artist with Extensive Advertising Experience.</t>
-  </si>
-  <si>
     <t>https://media-hosting.imagekit.io//2bd71dd975f646c6/hoWqT2HF_400x400.jpg?Expires=1835210653&amp;Key-Pair-Id=K2ZIVPTIP2VGHC&amp;Signature=wd0UEQ0con8mi-6itSOqy1Y3ApPUy3FsYV7-lwD5y~3GZKWHXaxRcTmy0~1XLALwdz5bYwavgz~MoVkULPs4vOMaZ2sFmWsEtNziRS5PO55Q1QYF~PBR2FPiCQNKdVd~ks~Xi8z6ToA1tdaDcrEIPaa2wu-oyuUIHpUY9W9DSGkS8Mko0M5-2ZyonWXCTTYiqKlCATRju30eFAr4qtjgrm3XDm4uSSFEhDjA0QbArdWj~jVVvJl7bG1vi0BcqFfD5bFM7ZVnuaAFDZXLtsDP2YomWPk3gRnSpI0BSLZow-zUc-dKDqFnYYGUVcUdrPHJgCBL0bsA5vyHNeEIb~YVfA__</t>
+  </si>
+  <si>
+    <t>Hello, I'm MRNAME, a passionate crypto enthusiast with extensive experience in the web3 ecosystem. With a passion for innovation and a deep understanding of web3, I'm dedicated to exploring the limitless possibilities of the digital world. Hit me up let’s give your community the reach it deserves!!</t>
+  </si>
+  <si>
+    <t>Hello Pedro here, Just a chill guy, testing some things around for the community. Nothing else! Have fun!</t>
+  </si>
+  <si>
+    <t>I’m a creative visual artist with strong skills in design and advertising. I love turning ideas into eye-catching visuals that tell a story and connect with people. From brand campaigns to digital art, I combine creativity and strategy to make memorable work. Let’s team up to create something amazing!</t>
   </si>
 </sst>
 </file>
@@ -980,8 +980,8 @@
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -994,7 +994,7 @@
     <col min="6" max="6" width="30.08984375" customWidth="1"/>
     <col min="7" max="7" width="20.36328125" customWidth="1"/>
     <col min="8" max="8" width="34.36328125" customWidth="1"/>
-    <col min="9" max="9" width="30" customWidth="1"/>
+    <col min="9" max="9" width="73.6328125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="25.453125" customWidth="1"/>
     <col min="11" max="11" width="19.453125" customWidth="1"/>
     <col min="12" max="12" width="25.08984375" customWidth="1"/>
@@ -1071,7 +1071,7 @@
         <v>26</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>31</v>
@@ -1080,7 +1080,7 @@
         <v>17</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>18</v>
@@ -1124,13 +1124,13 @@
         <v>17</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L3" s="10" t="s">
         <v>23</v>
@@ -1172,13 +1172,13 @@
         <v>34</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J4" s="5" t="s">
         <v>37</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>38</v>
@@ -1201,16 +1201,16 @@
         <v>45713.311203703706</v>
       </c>
       <c r="B5" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" s="16" t="s">
         <v>49</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>50</v>
       </c>
       <c r="F5" s="16" t="s">
         <v>22</v>
@@ -1219,31 +1219,31 @@
         <v>32</v>
       </c>
       <c r="H5" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="I5" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="J5" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="K5" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="I5" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="J5" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="K5" s="17" t="s">
+      <c r="L5" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="M5" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="L5" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="M5" s="16" t="s">
+      <c r="N5" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="N5" s="17" t="s">
+      <c r="O5" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="O5" s="16" t="s">
+      <c r="P5" s="16" t="s">
         <v>55</v>
-      </c>
-      <c r="P5" s="16" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1251,16 +1251,16 @@
         <v>45713.852731481478</v>
       </c>
       <c r="B6" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="13" t="s">
         <v>57</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>58</v>
       </c>
       <c r="D6" s="21" t="s">
         <v>21</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F6" s="21" t="s">
         <v>22</v>
@@ -1272,28 +1272,28 @@
         <v>34</v>
       </c>
       <c r="I6" s="21" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J6" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="K6" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="K6" s="22" t="s">
+      <c r="L6" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="L6" s="22" t="s">
+      <c r="M6" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="M6" s="21" t="s">
+      <c r="N6" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="N6" s="22" t="s">
+      <c r="O6" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="O6" s="22" t="s">
-        <v>64</v>
-      </c>
       <c r="P6" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -1301,40 +1301,40 @@
         <v>45713</v>
       </c>
       <c r="B7" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="28" t="s">
         <v>77</v>
-      </c>
-      <c r="C7" s="28" t="s">
-        <v>80</v>
       </c>
       <c r="D7" s="25" t="s">
         <v>21</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F7" s="25" t="s">
         <v>22</v>
       </c>
       <c r="G7" s="25" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H7" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="I7" t="s">
-        <v>79</v>
+      <c r="I7" s="25" t="s">
+        <v>80</v>
       </c>
       <c r="J7" s="25" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="L7" s="24" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="N7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="O7" t="s">
         <v>35</v>
